--- a/database_conti_styled.xlsx
+++ b/database_conti_styled.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Dati" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Dati'!$A$1:$G$1322</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Dati'!$A$1:$G$1324</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -464,7 +464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1322"/>
+  <dimension ref="A1:G1324"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -41470,8 +41470,70 @@
         <v>180</v>
       </c>
     </row>
+    <row r="1323">
+      <c r="A1323" t="n">
+        <v>1321</v>
+      </c>
+      <c r="B1323" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C1323" t="inlineStr">
+        <is>
+          <t>gennaio</t>
+        </is>
+      </c>
+      <c r="D1323" t="inlineStr">
+        <is>
+          <t>Entrate</t>
+        </is>
+      </c>
+      <c r="E1323" t="inlineStr">
+        <is>
+          <t>Congrua</t>
+        </is>
+      </c>
+      <c r="F1323" t="inlineStr">
+        <is>
+          <t>fra Giacomo</t>
+        </is>
+      </c>
+      <c r="G1323" s="3" t="n">
+        <v>960.8</v>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324" t="n">
+        <v>1322</v>
+      </c>
+      <c r="B1324" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C1324" t="inlineStr">
+        <is>
+          <t>febbraio</t>
+        </is>
+      </c>
+      <c r="D1324" t="inlineStr">
+        <is>
+          <t>Uscite</t>
+        </is>
+      </c>
+      <c r="E1324" t="inlineStr">
+        <is>
+          <t>Acquisti_Chiesa</t>
+        </is>
+      </c>
+      <c r="F1324" t="inlineStr">
+        <is>
+          <t>Fiori</t>
+        </is>
+      </c>
+      <c r="G1324" s="3" t="n">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G1322"/>
+  <autoFilter ref="A1:G1324"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/database_conti_styled.xlsx
+++ b/database_conti_styled.xlsx
@@ -41250,7 +41250,7 @@
         </is>
       </c>
       <c r="G1315" s="3" t="n">
-        <v>50</v>
+        <v>50.2</v>
       </c>
     </row>
     <row r="1316">

--- a/database_conti_styled.xlsx
+++ b/database_conti_styled.xlsx
@@ -41312,7 +41312,7 @@
         </is>
       </c>
       <c r="G1317" s="3" t="n">
-        <v>180</v>
+        <v>180.1</v>
       </c>
     </row>
     <row r="1318">

--- a/database_conti_styled.xlsx
+++ b/database_conti_styled.xlsx
@@ -41312,7 +41312,7 @@
         </is>
       </c>
       <c r="G1317" s="3" t="n">
-        <v>180</v>
+        <v>180.1</v>
       </c>
     </row>
     <row r="1318">
@@ -41436,7 +41436,7 @@
         </is>
       </c>
       <c r="G1321" s="3" t="n">
-        <v>25</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="1322">

--- a/database_conti_styled.xlsx
+++ b/database_conti_styled.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Dati" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Dati'!$A$1:$G$1324</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Dati'!$A$1:$G$1325</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -464,7 +464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1324"/>
+  <dimension ref="A1:G1325"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -41343,7 +41343,7 @@
         </is>
       </c>
       <c r="G1318" s="3" t="n">
-        <v>180</v>
+        <v>180.1</v>
       </c>
     </row>
     <row r="1319">
@@ -41436,7 +41436,7 @@
         </is>
       </c>
       <c r="G1321" s="3" t="n">
-        <v>25</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="1322">
@@ -41472,38 +41472,38 @@
     </row>
     <row r="1323">
       <c r="A1323" t="n">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="B1323" t="n">
         <v>2022</v>
       </c>
       <c r="C1323" t="inlineStr">
         <is>
-          <t>gennaio</t>
+          <t>febbraio</t>
         </is>
       </c>
       <c r="D1323" t="inlineStr">
         <is>
-          <t>Entrate</t>
+          <t>Uscite</t>
         </is>
       </c>
       <c r="E1323" t="inlineStr">
         <is>
-          <t>Congrua</t>
+          <t>Acquisti_Chiesa</t>
         </is>
       </c>
       <c r="F1323" t="inlineStr">
         <is>
-          <t>fra Giacomo</t>
+          <t>Fiori</t>
         </is>
       </c>
       <c r="G1323" s="3" t="n">
-        <v>960.8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1324">
       <c r="A1324" t="n">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="B1324" t="n">
         <v>2022</v>
@@ -41520,20 +41520,51 @@
       </c>
       <c r="E1324" t="inlineStr">
         <is>
-          <t>Acquisti_Chiesa</t>
+          <t>Acquisti_Orto_Animali</t>
         </is>
       </c>
       <c r="F1324" t="inlineStr">
         <is>
-          <t>Fiori</t>
+          <t>Attrezzi agricoli manutenzione</t>
         </is>
       </c>
       <c r="G1324" s="3" t="n">
-        <v>36</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" t="n">
+        <v>1324</v>
+      </c>
+      <c r="B1325" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C1325" t="inlineStr">
+        <is>
+          <t>gennaio</t>
+        </is>
+      </c>
+      <c r="D1325" t="inlineStr">
+        <is>
+          <t>Uscite</t>
+        </is>
+      </c>
+      <c r="E1325" t="inlineStr">
+        <is>
+          <t>Domestici</t>
+        </is>
+      </c>
+      <c r="F1325" t="inlineStr">
+        <is>
+          <t>Rosaria</t>
+        </is>
+      </c>
+      <c r="G1325" s="3" t="n">
+        <v>700</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1324"/>
+  <autoFilter ref="A1:G1325"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/database_conti_styled.xlsx
+++ b/database_conti_styled.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Dati" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Dati'!$A$1:$G$1325</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Dati'!$A$1:$G$1326</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -464,7 +464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1325"/>
+  <dimension ref="A1:G1326"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -41563,8 +41563,39 @@
         <v>700</v>
       </c>
     </row>
+    <row r="1326">
+      <c r="A1326" t="n">
+        <v>1325</v>
+      </c>
+      <c r="B1326" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C1326" t="inlineStr">
+        <is>
+          <t>gennaio</t>
+        </is>
+      </c>
+      <c r="D1326" t="inlineStr">
+        <is>
+          <t>Uscite</t>
+        </is>
+      </c>
+      <c r="E1326" t="inlineStr">
+        <is>
+          <t>Acquisti_Orto_Animali</t>
+        </is>
+      </c>
+      <c r="F1326" t="inlineStr">
+        <is>
+          <t>Semi, Ortaggi</t>
+        </is>
+      </c>
+      <c r="G1326" s="3" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G1325"/>
+  <autoFilter ref="A1:G1326"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/database_conti_styled.xlsx
+++ b/database_conti_styled.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Dati" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Dati'!$A$1:$G$1326</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Dati'!$A$1:$G$1324</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -464,7 +464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1326"/>
+  <dimension ref="A1:G1324"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -41312,7 +41312,7 @@
         </is>
       </c>
       <c r="G1317" s="3" t="n">
-        <v>180.1</v>
+        <v>180</v>
       </c>
     </row>
     <row r="1318">
@@ -41529,73 +41529,11 @@
         </is>
       </c>
       <c r="G1324" s="3" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="1325">
-      <c r="A1325" t="n">
-        <v>1324</v>
-      </c>
-      <c r="B1325" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C1325" t="inlineStr">
-        <is>
-          <t>gennaio</t>
-        </is>
-      </c>
-      <c r="D1325" t="inlineStr">
-        <is>
-          <t>Uscite</t>
-        </is>
-      </c>
-      <c r="E1325" t="inlineStr">
-        <is>
-          <t>Domestici</t>
-        </is>
-      </c>
-      <c r="F1325" t="inlineStr">
-        <is>
-          <t>Rosaria</t>
-        </is>
-      </c>
-      <c r="G1325" s="3" t="n">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="1326">
-      <c r="A1326" t="n">
-        <v>1325</v>
-      </c>
-      <c r="B1326" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C1326" t="inlineStr">
-        <is>
-          <t>gennaio</t>
-        </is>
-      </c>
-      <c r="D1326" t="inlineStr">
-        <is>
-          <t>Uscite</t>
-        </is>
-      </c>
-      <c r="E1326" t="inlineStr">
-        <is>
-          <t>Acquisti_Orto_Animali</t>
-        </is>
-      </c>
-      <c r="F1326" t="inlineStr">
-        <is>
-          <t>Semi, Ortaggi</t>
-        </is>
-      </c>
-      <c r="G1326" s="3" t="n">
-        <v>3.8</v>
+        <v>23.7</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1326"/>
+  <autoFilter ref="A1:G1324"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>